--- a/Output_testing/R1_201907/Country/HKD/MN/ICELAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ICELAND_201907_HKD_MN.xlsx
@@ -544,8 +544,10 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.387123</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.777664</v>
@@ -553,8 +555,10 @@
       <c r="F7" s="8" t="n">
         <v>0.734055</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>100.8829235152652</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ICELAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ICELAND_201907_HKD_MN.xlsx
@@ -814,136 +814,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>14.262277</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>15.00254597580404</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>18.248527</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>24.59093020835225</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>15.310136</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>5.908986028239808</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10.261053</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>23.14575928841447</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-7.812344600904797</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.936598</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.9852111662006083</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0.672079</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.9056647576814927</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4.178766</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1.612805393060098</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>10.149693</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>22.89456559958373</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>284.4774376890957</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>55.583089</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>58.46807267869695</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>22.677264</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>30.55890573197382</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>196.544466</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>75.85683781789098</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>7.027302</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>15.85141803078043</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-91.03112019047259</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.195531</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.257583820101025</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.851645</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.495197172113914</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>6.18922</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.388745240780512</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.365992</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.592636018811015</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>15.69300653704848</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.963855</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.013882913051584</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.3329139556290447</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.443212</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.5570113514202637</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.694748</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.822826883607545</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>153.3872976524923</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.304753</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.372474876877532</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.221642</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.646232222556476</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>7.325018</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.827109375031359</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.632687</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.682836478412456</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>128.2064399260318</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.173583</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.286400613992147</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.740161</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.692523123134745</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.510298</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.96885591406362</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.58385</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.572675323766018</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>38.35711571471625</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.194564</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.256566628949948</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.785613</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.058658293558392</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.854611</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3298392946071838</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.547648</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.491014817991495</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>178.9137909905494</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3.133604</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.296250527174829</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.598376</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>4.849016749648328</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.722286</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.050673223208</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.89758</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.024662636680179</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-23.39062094582599</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1964851448909902</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3183589925254248</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.1064379942064508</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.880156</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.985359486229506</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>14.131067</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.86452565426035</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>21.929758</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>29.5515987928261</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>21.745415</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.392698367491731</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5.291615</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.93624543572315</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-41.64332101012042</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1282,611 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>98.36589404401185</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.77371</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.49155419307053</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.724884</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>98.75063857612849</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>1.249361423871508</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.634105955988148</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.5084458069294708</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1918,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>14.262277</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>15.06388857425715</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>18.248527</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>24.85135917266211</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>15.310136</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>5.925774363232335</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10.261053</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>23.14575928841447</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-7.812344600904797</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.936598</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.9892395099935373</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>0.672079</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.9152561530803873</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4.178766</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>1.617387620380834</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>10.149693</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>22.89456559958373</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>284.4774376890957</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>55.583089</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>58.70713766876202</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>22.677264</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>30.88253822992291</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>196.544466</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>76.07235872091465</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>7.027302</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>15.85141803078043</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-91.03112019047259</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.195531</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.262725844622862</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1.851645</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.521622427676707</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>6.18922</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.395532032139025</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.365992</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.592636018811015</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>15.69300653704848</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.963855</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.018028490243222</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.3364396635194816</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.443212</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.5585939060442876</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.694748</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.822826883607545</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>153.3872976524923</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.304753</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.378086669395619</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.221642</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.663666559082237</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>7.325018</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.835141626084536</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.632687</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.682836478412456</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>128.2064399260318</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.173583</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.295749277545204</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.740161</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.731628596758576</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.510298</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.9716085822146456</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.58385</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.572675323766018</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>38.35711571471625</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.194564</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.261704494367829</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.785613</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.069869959022589</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.854611</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3307764185985252</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.547648</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.491014817991495</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>178.9137909905494</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3.133604</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.309728277738996</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>3.598376</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.900370008729319</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.722286</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.053658346874665</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.89758</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.024662636680179</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-23.39062094582599</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1972885358197357</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3217305568379438</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.1067404008620311</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.880156</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.985359486229506</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>13.743944</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.51642265725383</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>21.152094</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>28.80551867270774</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>21.01136</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.132427982654457</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5.291615</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.93624543572315</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-39.27663479031816</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2386,475 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1.337125</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>4.938619109465173</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.3881219599539669</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>4.77965</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>17.1992231139365</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.79342</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>28.89884937180058</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>16.9270515037915</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>7.283149</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>26.9000271690995</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.291244</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>8.298173973207613</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7.92793</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>28.52807985975345</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.119362</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.92549749136113</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-44.51298629895978</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.011887</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>7.430826275991071</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>6.073736</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>21.99718493330876</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3.315295</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.92984808375469</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.014968</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.50017804311478</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-51.6074232262131</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.683493</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.070960061029166</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.09843073704197206</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.273826</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.613402046920869</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.551114</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.983143671024866</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.661201</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.840341983476854</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>64.28129526611195</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3.137883</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>11.58964864695964</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.674468</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.442713566674431</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3.963062</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>14.2607905500117</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.600824</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.215722045006734</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-65.57456607522757</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>4.105511</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>15.16354497800839</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>4.051598</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>14.6736292919916</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1.183134</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.257421702359827</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.837744892045456</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>322.495075983448</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>5.796024</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>21.40738890179959</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>10.538179</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>38.16601056142559</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2.044486</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>7.356934266592654</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.91465186208683</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-4.149895764993761</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6816762521830202</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.238469265475044</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.507251</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.82530585372724</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.063355209566367</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-32.92009861130263</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.137077319880351</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.552585618461364</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3.192084</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.78983792945164</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.221399</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.045217081161768</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>3.517996</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>12.65925289883907</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0.597382</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.180113422050739</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-27.32304989604231</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
